--- a/public/templates/IT_Training_Schedule.xlsx
+++ b/public/templates/IT_Training_Schedule.xlsx
@@ -599,6 +599,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
@@ -656,7 +657,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Fundamentals (AI-101)</t>
+          <t>IT Fundamentals (AI-101)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -701,7 +702,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Platform Overview (AI-102)</t>
+          <t>IT Platform Overview (AI-102)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -751,7 +752,7 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
@@ -796,7 +797,7 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -841,7 +842,7 @@
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, IT</t>
+          <t>DevOps Engineers, IT</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -886,7 +887,7 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, QA</t>
+          <t>DevOps Engineers, QA</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -1013,6 +1014,7 @@
         </is>
       </c>
     </row>
+    <row r="17"/>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
@@ -1227,6 +1229,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Fundamentals</t>
+          <t>IT Fundamentals</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1355,7 +1358,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Platform Overview</t>
+          <t>IT Platform Overview</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -1418,7 +1421,7 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -1476,7 +1479,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
@@ -1534,7 +1537,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>Business Analysts</t>
+          <t>System Administrators</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -1592,7 +1595,7 @@
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1650,7 +1653,7 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>Data Scientists</t>
+          <t>IT Managers</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -1708,7 +1711,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, IT</t>
+          <t>DevOps Engineers, IT</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -1766,7 +1769,7 @@
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, IT</t>
+          <t>DevOps Engineers, IT</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -1824,7 +1827,7 @@
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, QA</t>
+          <t>DevOps Engineers, QA</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
@@ -1882,7 +1885,7 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, QA</t>
+          <t>DevOps Engineers, QA</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -2318,6 +2321,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -2948,6 +2952,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3579,6 +3584,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
